--- a/2-Empirical-Evidence/raw_data/New_Mexico.xlsx
+++ b/2-Empirical-Evidence/raw_data/New_Mexico.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
   <si>
     <t>Local Area Unemployment Statistics</t>
   </si>
@@ -20,7 +20,7 @@
     <t>Years:</t>
   </si>
   <si>
-    <t>1990 to 2020</t>
+    <t>1990 to 2024</t>
   </si>
   <si>
     <t>Series ID</t>
@@ -148,6 +148,22 @@
   <si>
     <t>Annual
 2020</t>
+  </si>
+  <si>
+    <t>Annual
+2021</t>
+  </si>
+  <si>
+    <t>Annual
+2022</t>
+  </si>
+  <si>
+    <t>Annual
+2023</t>
+  </si>
+  <si>
+    <t>Annual
+2024</t>
   </si>
   <si>
     <t>LAUCN350010000000003</t>
@@ -934,10 +950,22 @@
       <c r="AF4" t="s" s="3">
         <v>34</v>
       </c>
+      <c r="AG4" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="AH4" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="AI4" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="AJ4" t="s" s="3">
+        <v>38</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B5" t="n" s="10">
         <v>5.5</v>
@@ -1032,10 +1060,20 @@
       <c r="AF5" t="n" s="10">
         <v>7.6</v>
       </c>
+      <c r="AG5" t="n" s="10">
+        <v>6.5</v>
+      </c>
+      <c r="AH5" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AI5" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AJ5"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="7">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" t="n" s="8">
         <v>13854.0</v>
@@ -1130,10 +1168,20 @@
       <c r="AF6" t="n" s="8">
         <v>24713.0</v>
       </c>
+      <c r="AG6" t="n" s="8">
+        <v>21622.0</v>
+      </c>
+      <c r="AH6" t="n" s="8">
+        <v>12326.0</v>
+      </c>
+      <c r="AI6" t="n" s="8">
+        <v>11914.0</v>
+      </c>
+      <c r="AJ6"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="7">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B7" t="n" s="8">
         <v>237732.0</v>
@@ -1228,10 +1276,20 @@
       <c r="AF7" t="n" s="8">
         <v>302519.0</v>
       </c>
+      <c r="AG7" t="n" s="8">
+        <v>312357.0</v>
+      </c>
+      <c r="AH7" t="n" s="8">
+        <v>325772.0</v>
+      </c>
+      <c r="AI7" t="n" s="8">
+        <v>332910.0</v>
+      </c>
+      <c r="AJ7"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="7">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B8" t="n" s="8">
         <v>251586.0</v>
@@ -1326,10 +1384,20 @@
       <c r="AF8" t="n" s="8">
         <v>327232.0</v>
       </c>
+      <c r="AG8" t="n" s="8">
+        <v>333979.0</v>
+      </c>
+      <c r="AH8" t="n" s="8">
+        <v>338098.0</v>
+      </c>
+      <c r="AI8" t="n" s="8">
+        <v>344824.0</v>
+      </c>
+      <c r="AJ8"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="7">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B9" t="n" s="10">
         <v>15.3</v>
@@ -1424,10 +1492,20 @@
       <c r="AF9" t="n" s="10">
         <v>7.0</v>
       </c>
+      <c r="AG9" t="n" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="AH9" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AI9" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AJ9"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="7">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B10" t="n" s="8">
         <v>190.0</v>
@@ -1522,10 +1600,20 @@
       <c r="AF10" t="n" s="8">
         <v>80.0</v>
       </c>
+      <c r="AG10" t="n" s="8">
+        <v>77.0</v>
+      </c>
+      <c r="AH10" t="n" s="8">
+        <v>59.0</v>
+      </c>
+      <c r="AI10" t="n" s="8">
+        <v>55.0</v>
+      </c>
+      <c r="AJ10"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B11" t="n" s="8">
         <v>1053.0</v>
@@ -1620,10 +1708,20 @@
       <c r="AF11" t="n" s="8">
         <v>1061.0</v>
       </c>
+      <c r="AG11" t="n" s="8">
+        <v>1097.0</v>
+      </c>
+      <c r="AH11" t="n" s="8">
+        <v>1142.0</v>
+      </c>
+      <c r="AI11" t="n" s="8">
+        <v>1074.0</v>
+      </c>
+      <c r="AJ11"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B12" t="n" s="8">
         <v>1243.0</v>
@@ -1718,10 +1816,20 @@
       <c r="AF12" t="n" s="8">
         <v>1141.0</v>
       </c>
+      <c r="AG12" t="n" s="8">
+        <v>1174.0</v>
+      </c>
+      <c r="AH12" t="n" s="8">
+        <v>1201.0</v>
+      </c>
+      <c r="AI12" t="n" s="8">
+        <v>1129.0</v>
+      </c>
+      <c r="AJ12"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="7">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B13" t="n" s="10">
         <v>5.6</v>
@@ -1816,10 +1924,20 @@
       <c r="AF13" t="n" s="10">
         <v>7.6</v>
       </c>
+      <c r="AG13" t="n" s="10">
+        <v>7.3</v>
+      </c>
+      <c r="AH13" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AI13" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AJ13"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="7">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B14" t="n" s="8">
         <v>1451.0</v>
@@ -1914,10 +2032,20 @@
       <c r="AF14" t="n" s="8">
         <v>2103.0</v>
       </c>
+      <c r="AG14" t="n" s="8">
+        <v>2035.0</v>
+      </c>
+      <c r="AH14" t="n" s="8">
+        <v>1186.0</v>
+      </c>
+      <c r="AI14" t="n" s="8">
+        <v>1041.0</v>
+      </c>
+      <c r="AJ14"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="7">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B15" t="n" s="8">
         <v>24248.0</v>
@@ -2012,10 +2140,20 @@
       <c r="AF15" t="n" s="8">
         <v>25396.0</v>
       </c>
+      <c r="AG15" t="n" s="8">
+        <v>25822.0</v>
+      </c>
+      <c r="AH15" t="n" s="8">
+        <v>26348.0</v>
+      </c>
+      <c r="AI15" t="n" s="8">
+        <v>26268.0</v>
+      </c>
+      <c r="AJ15"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="7">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B16" t="n" s="8">
         <v>25699.0</v>
@@ -2110,10 +2248,20 @@
       <c r="AF16" t="n" s="8">
         <v>27499.0</v>
       </c>
+      <c r="AG16" t="n" s="8">
+        <v>27857.0</v>
+      </c>
+      <c r="AH16" t="n" s="8">
+        <v>27534.0</v>
+      </c>
+      <c r="AI16" t="n" s="8">
+        <v>27309.0</v>
+      </c>
+      <c r="AJ16"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="7">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B17" t="n" s="10">
         <v>13.2</v>
@@ -2208,10 +2356,20 @@
       <c r="AF17" t="n" s="10">
         <v>8.7</v>
       </c>
+      <c r="AG17" t="n" s="10">
+        <v>9.7</v>
+      </c>
+      <c r="AH17" t="n" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="AI17" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AJ17"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="7">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B18" t="n" s="8">
         <v>1213.0</v>
@@ -2306,10 +2464,20 @@
       <c r="AF18" t="n" s="8">
         <v>780.0</v>
       </c>
+      <c r="AG18" t="n" s="8">
+        <v>850.0</v>
+      </c>
+      <c r="AH18" t="n" s="8">
+        <v>453.0</v>
+      </c>
+      <c r="AI18" t="n" s="8">
+        <v>423.0</v>
+      </c>
+      <c r="AJ18"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="7">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B19" t="n" s="8">
         <v>7961.0</v>
@@ -2404,10 +2572,20 @@
       <c r="AF19" t="n" s="8">
         <v>8151.0</v>
       </c>
+      <c r="AG19" t="n" s="8">
+        <v>7901.0</v>
+      </c>
+      <c r="AH19" t="n" s="8">
+        <v>7762.0</v>
+      </c>
+      <c r="AI19" t="n" s="8">
+        <v>7728.0</v>
+      </c>
+      <c r="AJ19"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="7">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B20" t="n" s="8">
         <v>9174.0</v>
@@ -2502,10 +2680,20 @@
       <c r="AF20" t="n" s="8">
         <v>8931.0</v>
       </c>
+      <c r="AG20" t="n" s="8">
+        <v>8751.0</v>
+      </c>
+      <c r="AH20" t="n" s="8">
+        <v>8215.0</v>
+      </c>
+      <c r="AI20" t="n" s="8">
+        <v>8151.0</v>
+      </c>
+      <c r="AJ20"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="7">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B21" t="n" s="10">
         <v>9.5</v>
@@ -2600,10 +2788,20 @@
       <c r="AF21" t="n" s="10">
         <v>6.7</v>
       </c>
+      <c r="AG21" t="n" s="10">
+        <v>6.3</v>
+      </c>
+      <c r="AH21" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AI21" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ21"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="7">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B22" t="n" s="8">
         <v>579.0</v>
@@ -2698,10 +2896,20 @@
       <c r="AF22" t="n" s="8">
         <v>341.0</v>
       </c>
+      <c r="AG22" t="n" s="8">
+        <v>350.0</v>
+      </c>
+      <c r="AH22" t="n" s="8">
+        <v>210.0</v>
+      </c>
+      <c r="AI22" t="n" s="8">
+        <v>185.0</v>
+      </c>
+      <c r="AJ22"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="7">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B23" t="n" s="8">
         <v>5509.0</v>
@@ -2796,10 +3004,20 @@
       <c r="AF23" t="n" s="8">
         <v>4735.0</v>
       </c>
+      <c r="AG23" t="n" s="8">
+        <v>5176.0</v>
+      </c>
+      <c r="AH23" t="n" s="8">
+        <v>5125.0</v>
+      </c>
+      <c r="AI23" t="n" s="8">
+        <v>5179.0</v>
+      </c>
+      <c r="AJ23"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="7">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B24" t="n" s="8">
         <v>6088.0</v>
@@ -2894,10 +3112,20 @@
       <c r="AF24" t="n" s="8">
         <v>5076.0</v>
       </c>
+      <c r="AG24" t="n" s="8">
+        <v>5526.0</v>
+      </c>
+      <c r="AH24" t="n" s="8">
+        <v>5335.0</v>
+      </c>
+      <c r="AI24" t="n" s="8">
+        <v>5364.0</v>
+      </c>
+      <c r="AJ24"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="7">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B25" t="n" s="10">
         <v>6.0</v>
@@ -2992,10 +3220,20 @@
       <c r="AF25" t="n" s="10">
         <v>5.2</v>
       </c>
+      <c r="AG25" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AH25" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI25" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AJ25"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="7">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B26" t="n" s="8">
         <v>1064.0</v>
@@ -3090,10 +3328,20 @@
       <c r="AF26" t="n" s="8">
         <v>1130.0</v>
       </c>
+      <c r="AG26" t="n" s="8">
+        <v>1155.0</v>
+      </c>
+      <c r="AH26" t="n" s="8">
+        <v>725.0</v>
+      </c>
+      <c r="AI26" t="n" s="8">
+        <v>646.0</v>
+      </c>
+      <c r="AJ26"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="7">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B27" t="n" s="8">
         <v>16683.0</v>
@@ -3188,10 +3436,20 @@
       <c r="AF27" t="n" s="8">
         <v>20702.0</v>
       </c>
+      <c r="AG27" t="n" s="8">
+        <v>21045.0</v>
+      </c>
+      <c r="AH27" t="n" s="8">
+        <v>21551.0</v>
+      </c>
+      <c r="AI27" t="n" s="8">
+        <v>21611.0</v>
+      </c>
+      <c r="AJ27"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="7">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B28" t="n" s="8">
         <v>17747.0</v>
@@ -3286,10 +3544,20 @@
       <c r="AF28" t="n" s="8">
         <v>21832.0</v>
       </c>
+      <c r="AG28" t="n" s="8">
+        <v>22200.0</v>
+      </c>
+      <c r="AH28" t="n" s="8">
+        <v>22276.0</v>
+      </c>
+      <c r="AI28" t="n" s="8">
+        <v>22257.0</v>
+      </c>
+      <c r="AJ28"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="7">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B29" t="n" s="10">
         <v>5.1</v>
@@ -3384,10 +3652,20 @@
       <c r="AF29" t="n" s="10">
         <v>4.5</v>
       </c>
+      <c r="AG29" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AH29" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI29" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ29"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="7">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B30" t="n" s="8">
         <v>46.0</v>
@@ -3482,10 +3760,20 @@
       <c r="AF30" t="n" s="8">
         <v>31.0</v>
       </c>
+      <c r="AG30" t="n" s="8">
+        <v>37.0</v>
+      </c>
+      <c r="AH30" t="n" s="8">
+        <v>25.0</v>
+      </c>
+      <c r="AI30" t="n" s="8">
+        <v>24.0</v>
+      </c>
+      <c r="AJ30"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="7">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B31" t="n" s="8">
         <v>859.0</v>
@@ -3580,10 +3868,20 @@
       <c r="AF31" t="n" s="8">
         <v>661.0</v>
       </c>
+      <c r="AG31" t="n" s="8">
+        <v>650.0</v>
+      </c>
+      <c r="AH31" t="n" s="8">
+        <v>699.0</v>
+      </c>
+      <c r="AI31" t="n" s="8">
+        <v>700.0</v>
+      </c>
+      <c r="AJ31"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="7">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B32" t="n" s="8">
         <v>905.0</v>
@@ -3678,10 +3976,20 @@
       <c r="AF32" t="n" s="8">
         <v>692.0</v>
       </c>
+      <c r="AG32" t="n" s="8">
+        <v>687.0</v>
+      </c>
+      <c r="AH32" t="n" s="8">
+        <v>724.0</v>
+      </c>
+      <c r="AI32" t="n" s="8">
+        <v>724.0</v>
+      </c>
+      <c r="AJ32"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="7">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B33" t="n" s="10">
         <v>8.0</v>
@@ -3776,10 +4084,20 @@
       <c r="AF33" t="n" s="10">
         <v>7.8</v>
       </c>
+      <c r="AG33" t="n" s="10">
+        <v>6.9</v>
+      </c>
+      <c r="AH33" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AI33" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AJ33"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="7">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B34" t="n" s="8">
         <v>4782.0</v>
@@ -3874,10 +4192,20 @@
       <c r="AF34" t="n" s="8">
         <v>7534.0</v>
       </c>
+      <c r="AG34" t="n" s="8">
+        <v>6808.0</v>
+      </c>
+      <c r="AH34" t="n" s="8">
+        <v>4408.0</v>
+      </c>
+      <c r="AI34" t="n" s="8">
+        <v>4390.0</v>
+      </c>
+      <c r="AJ34"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="7">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B35" t="n" s="8">
         <v>55321.0</v>
@@ -3972,10 +4300,20 @@
       <c r="AF35" t="n" s="8">
         <v>88977.0</v>
       </c>
+      <c r="AG35" t="n" s="8">
+        <v>91646.0</v>
+      </c>
+      <c r="AH35" t="n" s="8">
+        <v>94887.0</v>
+      </c>
+      <c r="AI35" t="n" s="8">
+        <v>97763.0</v>
+      </c>
+      <c r="AJ35"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="7">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B36" t="n" s="8">
         <v>60103.0</v>
@@ -4070,10 +4408,20 @@
       <c r="AF36" t="n" s="8">
         <v>96511.0</v>
       </c>
+      <c r="AG36" t="n" s="8">
+        <v>98454.0</v>
+      </c>
+      <c r="AH36" t="n" s="8">
+        <v>99295.0</v>
+      </c>
+      <c r="AI36" t="n" s="8">
+        <v>102153.0</v>
+      </c>
+      <c r="AJ36"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="7">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B37" t="n" s="10">
         <v>6.8</v>
@@ -4168,10 +4516,20 @@
       <c r="AF37" t="n" s="10">
         <v>6.5</v>
       </c>
+      <c r="AG37" t="n" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="AH37" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI37" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AJ37"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="7">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B38" t="n" s="8">
         <v>1463.0</v>
@@ -4266,10 +4624,20 @@
       <c r="AF38" t="n" s="8">
         <v>2131.0</v>
       </c>
+      <c r="AG38" t="n" s="8">
+        <v>2088.0</v>
+      </c>
+      <c r="AH38" t="n" s="8">
+        <v>1051.0</v>
+      </c>
+      <c r="AI38" t="n" s="8">
+        <v>850.0</v>
+      </c>
+      <c r="AJ38"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="7">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B39" t="n" s="8">
         <v>20060.0</v>
@@ -4364,10 +4732,20 @@
       <c r="AF39" t="n" s="8">
         <v>30794.0</v>
       </c>
+      <c r="AG39" t="n" s="8">
+        <v>29396.0</v>
+      </c>
+      <c r="AH39" t="n" s="8">
+        <v>30199.0</v>
+      </c>
+      <c r="AI39" t="n" s="8">
+        <v>31365.0</v>
+      </c>
+      <c r="AJ39"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="7">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B40" t="n" s="8">
         <v>21523.0</v>
@@ -4462,10 +4840,20 @@
       <c r="AF40" t="n" s="8">
         <v>32925.0</v>
       </c>
+      <c r="AG40" t="n" s="8">
+        <v>31484.0</v>
+      </c>
+      <c r="AH40" t="n" s="8">
+        <v>31250.0</v>
+      </c>
+      <c r="AI40" t="n" s="8">
+        <v>32215.0</v>
+      </c>
+      <c r="AJ40"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="7">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B41" t="n" s="10">
         <v>9.1</v>
@@ -4560,10 +4948,20 @@
       <c r="AF41" t="n" s="10">
         <v>8.4</v>
       </c>
+      <c r="AG41" t="n" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="AH41" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AI41" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AJ41"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="7">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B42" t="n" s="8">
         <v>1049.0</v>
@@ -4658,10 +5056,20 @@
       <c r="AF42" t="n" s="8">
         <v>989.0</v>
       </c>
+      <c r="AG42" t="n" s="8">
+        <v>861.0</v>
+      </c>
+      <c r="AH42" t="n" s="8">
+        <v>481.0</v>
+      </c>
+      <c r="AI42" t="n" s="8">
+        <v>411.0</v>
+      </c>
+      <c r="AJ42"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="7">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B43" t="n" s="8">
         <v>10459.0</v>
@@ -4756,10 +5164,20 @@
       <c r="AF43" t="n" s="8">
         <v>10738.0</v>
       </c>
+      <c r="AG43" t="n" s="8">
+        <v>10595.0</v>
+      </c>
+      <c r="AH43" t="n" s="8">
+        <v>11108.0</v>
+      </c>
+      <c r="AI43" t="n" s="8">
+        <v>11301.0</v>
+      </c>
+      <c r="AJ43"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="7">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B44" t="n" s="8">
         <v>11508.0</v>
@@ -4854,10 +5272,20 @@
       <c r="AF44" t="n" s="8">
         <v>11727.0</v>
       </c>
+      <c r="AG44" t="n" s="8">
+        <v>11456.0</v>
+      </c>
+      <c r="AH44" t="n" s="8">
+        <v>11589.0</v>
+      </c>
+      <c r="AI44" t="n" s="8">
+        <v>11712.0</v>
+      </c>
+      <c r="AJ44"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="7">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B45" t="n" s="10">
         <v>12.2</v>
@@ -4952,10 +5380,20 @@
       <c r="AF45" t="n" s="10">
         <v>6.4</v>
       </c>
+      <c r="AG45" t="n" s="10">
+        <v>7.4</v>
+      </c>
+      <c r="AH45" t="n" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="AI45" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AJ45"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="7">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B46" t="n" s="8">
         <v>211.0</v>
@@ -5050,10 +5488,20 @@
       <c r="AF46" t="n" s="8">
         <v>95.0</v>
       </c>
+      <c r="AG46" t="n" s="8">
+        <v>118.0</v>
+      </c>
+      <c r="AH46" t="n" s="8">
+        <v>82.0</v>
+      </c>
+      <c r="AI46" t="n" s="8">
+        <v>61.0</v>
+      </c>
+      <c r="AJ46"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="7">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B47" t="n" s="8">
         <v>1524.0</v>
@@ -5148,10 +5596,20 @@
       <c r="AF47" t="n" s="8">
         <v>1392.0</v>
       </c>
+      <c r="AG47" t="n" s="8">
+        <v>1483.0</v>
+      </c>
+      <c r="AH47" t="n" s="8">
+        <v>1360.0</v>
+      </c>
+      <c r="AI47" t="n" s="8">
+        <v>1446.0</v>
+      </c>
+      <c r="AJ47"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="7">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B48" t="n" s="8">
         <v>1735.0</v>
@@ -5246,10 +5704,20 @@
       <c r="AF48" t="n" s="8">
         <v>1487.0</v>
       </c>
+      <c r="AG48" t="n" s="8">
+        <v>1601.0</v>
+      </c>
+      <c r="AH48" t="n" s="8">
+        <v>1442.0</v>
+      </c>
+      <c r="AI48" t="n" s="8">
+        <v>1507.0</v>
+      </c>
+      <c r="AJ48"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="7">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B49" t="n" s="10">
         <v>9.0</v>
@@ -5344,10 +5812,20 @@
       <c r="AF49" t="n" s="10">
         <v>4.0</v>
       </c>
+      <c r="AG49" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AH49" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AI49" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AJ49"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="7">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B50" t="n" s="8">
         <v>41.0</v>
@@ -5442,10 +5920,20 @@
       <c r="AF50" t="n" s="8">
         <v>11.0</v>
       </c>
+      <c r="AG50" t="n" s="8">
+        <v>14.0</v>
+      </c>
+      <c r="AH50" t="n" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="AI50" t="n" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="AJ50"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="7">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B51" t="n" s="8">
         <v>415.0</v>
@@ -5540,10 +6028,20 @@
       <c r="AF51" t="n" s="8">
         <v>264.0</v>
       </c>
+      <c r="AG51" t="n" s="8">
+        <v>267.0</v>
+      </c>
+      <c r="AH51" t="n" s="8">
+        <v>271.0</v>
+      </c>
+      <c r="AI51" t="n" s="8">
+        <v>260.0</v>
+      </c>
+      <c r="AJ51"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="7">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B52" t="n" s="8">
         <v>456.0</v>
@@ -5638,10 +6136,20 @@
       <c r="AF52" t="n" s="8">
         <v>275.0</v>
       </c>
+      <c r="AG52" t="n" s="8">
+        <v>281.0</v>
+      </c>
+      <c r="AH52" t="n" s="8">
+        <v>281.0</v>
+      </c>
+      <c r="AI52" t="n" s="8">
+        <v>270.0</v>
+      </c>
+      <c r="AJ52"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="7">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B53" t="n" s="10">
         <v>6.8</v>
@@ -5736,10 +6244,20 @@
       <c r="AF53" t="n" s="10">
         <v>5.5</v>
       </c>
+      <c r="AG53" t="n" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="AH53" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI53" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ53"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="7">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B54" t="n" s="8">
         <v>175.0</v>
@@ -5834,10 +6352,20 @@
       <c r="AF54" t="n" s="8">
         <v>105.0</v>
       </c>
+      <c r="AG54" t="n" s="8">
+        <v>108.0</v>
+      </c>
+      <c r="AH54" t="n" s="8">
+        <v>65.0</v>
+      </c>
+      <c r="AI54" t="n" s="8">
+        <v>58.0</v>
+      </c>
+      <c r="AJ54"/>
     </row>
     <row r="55">
       <c r="A55" t="s" s="7">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B55" t="n" s="8">
         <v>2414.0</v>
@@ -5932,10 +6460,20 @@
       <c r="AF55" t="n" s="8">
         <v>1801.0</v>
       </c>
+      <c r="AG55" t="n" s="8">
+        <v>1780.0</v>
+      </c>
+      <c r="AH55" t="n" s="8">
+        <v>1829.0</v>
+      </c>
+      <c r="AI55" t="n" s="8">
+        <v>1705.0</v>
+      </c>
+      <c r="AJ55"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="7">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B56" t="n" s="8">
         <v>2589.0</v>
@@ -6030,10 +6568,20 @@
       <c r="AF56" t="n" s="8">
         <v>1906.0</v>
       </c>
+      <c r="AG56" t="n" s="8">
+        <v>1888.0</v>
+      </c>
+      <c r="AH56" t="n" s="8">
+        <v>1894.0</v>
+      </c>
+      <c r="AI56" t="n" s="8">
+        <v>1763.0</v>
+      </c>
+      <c r="AJ56"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="7">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B57" t="n" s="10">
         <v>4.8</v>
@@ -6128,10 +6676,20 @@
       <c r="AF57" t="n" s="10">
         <v>10.4</v>
       </c>
+      <c r="AG57" t="n" s="10">
+        <v>9.8</v>
+      </c>
+      <c r="AH57" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AI57" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AJ57"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="7">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B58" t="n" s="8">
         <v>1139.0</v>
@@ -6226,10 +6784,20 @@
       <c r="AF58" t="n" s="8">
         <v>3013.0</v>
       </c>
+      <c r="AG58" t="n" s="8">
+        <v>2735.0</v>
+      </c>
+      <c r="AH58" t="n" s="8">
+        <v>1295.0</v>
+      </c>
+      <c r="AI58" t="n" s="8">
+        <v>1055.0</v>
+      </c>
+      <c r="AJ58"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="7">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B59" t="n" s="8">
         <v>22511.0</v>
@@ -6324,10 +6892,20 @@
       <c r="AF59" t="n" s="8">
         <v>25917.0</v>
       </c>
+      <c r="AG59" t="n" s="8">
+        <v>25242.0</v>
+      </c>
+      <c r="AH59" t="n" s="8">
+        <v>27846.0</v>
+      </c>
+      <c r="AI59" t="n" s="8">
+        <v>29139.0</v>
+      </c>
+      <c r="AJ59"/>
     </row>
     <row r="60">
       <c r="A60" t="s" s="7">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B60" t="n" s="8">
         <v>23650.0</v>
@@ -6422,10 +7000,20 @@
       <c r="AF60" t="n" s="8">
         <v>28930.0</v>
       </c>
+      <c r="AG60" t="n" s="8">
+        <v>27977.0</v>
+      </c>
+      <c r="AH60" t="n" s="8">
+        <v>29141.0</v>
+      </c>
+      <c r="AI60" t="n" s="8">
+        <v>30194.0</v>
+      </c>
+      <c r="AJ60"/>
     </row>
     <row r="61">
       <c r="A61" t="s" s="7">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B61" t="n" s="10">
         <v>5.9</v>
@@ -6520,10 +7108,20 @@
       <c r="AF61" t="n" s="10">
         <v>8.5</v>
       </c>
+      <c r="AG61" t="n" s="10">
+        <v>7.8</v>
+      </c>
+      <c r="AH61" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AI61" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ61"/>
     </row>
     <row r="62">
       <c r="A62" t="s" s="7">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B62" t="n" s="8">
         <v>354.0</v>
@@ -6618,10 +7216,20 @@
       <c r="AF62" t="n" s="8">
         <v>734.0</v>
       </c>
+      <c r="AG62" t="n" s="8">
+        <v>682.0</v>
+      </c>
+      <c r="AH62" t="n" s="8">
+        <v>359.0</v>
+      </c>
+      <c r="AI62" t="n" s="8">
+        <v>292.0</v>
+      </c>
+      <c r="AJ62"/>
     </row>
     <row r="63">
       <c r="A63" t="s" s="7">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B63" t="n" s="8">
         <v>5646.0</v>
@@ -6716,10 +7324,20 @@
       <c r="AF63" t="n" s="8">
         <v>7910.0</v>
       </c>
+      <c r="AG63" t="n" s="8">
+        <v>8091.0</v>
+      </c>
+      <c r="AH63" t="n" s="8">
+        <v>8487.0</v>
+      </c>
+      <c r="AI63" t="n" s="8">
+        <v>8781.0</v>
+      </c>
+      <c r="AJ63"/>
     </row>
     <row r="64">
       <c r="A64" t="s" s="7">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B64" t="n" s="8">
         <v>6000.0</v>
@@ -6814,10 +7432,20 @@
       <c r="AF64" t="n" s="8">
         <v>8644.0</v>
       </c>
+      <c r="AG64" t="n" s="8">
+        <v>8773.0</v>
+      </c>
+      <c r="AH64" t="n" s="8">
+        <v>8846.0</v>
+      </c>
+      <c r="AI64" t="n" s="8">
+        <v>9073.0</v>
+      </c>
+      <c r="AJ64"/>
     </row>
     <row r="65">
       <c r="A65" t="s" s="7">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B65" t="n" s="10">
         <v>1.5</v>
@@ -6912,10 +7540,20 @@
       <c r="AF65" t="n" s="10">
         <v>3.5</v>
       </c>
+      <c r="AG65" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AH65" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AI65" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AJ65"/>
     </row>
     <row r="66">
       <c r="A66" t="s" s="7">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B66" t="n" s="8">
         <v>166.0</v>
@@ -7010,10 +7648,20 @@
       <c r="AF66" t="n" s="8">
         <v>346.0</v>
       </c>
+      <c r="AG66" t="n" s="8">
+        <v>322.0</v>
+      </c>
+      <c r="AH66" t="n" s="8">
+        <v>234.0</v>
+      </c>
+      <c r="AI66" t="n" s="8">
+        <v>219.0</v>
+      </c>
+      <c r="AJ66"/>
     </row>
     <row r="67">
       <c r="A67" t="s" s="7">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B67" t="n" s="8">
         <v>10618.0</v>
@@ -7108,10 +7756,20 @@
       <c r="AF67" t="n" s="8">
         <v>9413.0</v>
       </c>
+      <c r="AG67" t="n" s="8">
+        <v>9689.0</v>
+      </c>
+      <c r="AH67" t="n" s="8">
+        <v>10345.0</v>
+      </c>
+      <c r="AI67" t="n" s="8">
+        <v>11598.0</v>
+      </c>
+      <c r="AJ67"/>
     </row>
     <row r="68">
       <c r="A68" t="s" s="7">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B68" t="n" s="8">
         <v>10784.0</v>
@@ -7206,10 +7864,20 @@
       <c r="AF68" t="n" s="8">
         <v>9759.0</v>
       </c>
+      <c r="AG68" t="n" s="8">
+        <v>10011.0</v>
+      </c>
+      <c r="AH68" t="n" s="8">
+        <v>10579.0</v>
+      </c>
+      <c r="AI68" t="n" s="8">
+        <v>11817.0</v>
+      </c>
+      <c r="AJ68"/>
     </row>
     <row r="69">
       <c r="A69" t="s" s="7">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B69" t="n" s="10">
         <v>13.1</v>
@@ -7304,10 +7972,20 @@
       <c r="AF69" t="n" s="10">
         <v>15.3</v>
       </c>
+      <c r="AG69" t="n" s="10">
+        <v>15.3</v>
+      </c>
+      <c r="AH69" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="AI69" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="AJ69"/>
     </row>
     <row r="70">
       <c r="A70" t="s" s="7">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B70" t="n" s="8">
         <v>985.0</v>
@@ -7402,10 +8080,20 @@
       <c r="AF70" t="n" s="8">
         <v>1553.0</v>
       </c>
+      <c r="AG70" t="n" s="8">
+        <v>1547.0</v>
+      </c>
+      <c r="AH70" t="n" s="8">
+        <v>984.0</v>
+      </c>
+      <c r="AI70" t="n" s="8">
+        <v>1012.0</v>
+      </c>
+      <c r="AJ70"/>
     </row>
     <row r="71">
       <c r="A71" t="s" s="7">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B71" t="n" s="8">
         <v>6551.0</v>
@@ -7500,10 +8188,20 @@
       <c r="AF71" t="n" s="8">
         <v>8576.0</v>
       </c>
+      <c r="AG71" t="n" s="8">
+        <v>8593.0</v>
+      </c>
+      <c r="AH71" t="n" s="8">
+        <v>8861.0</v>
+      </c>
+      <c r="AI71" t="n" s="8">
+        <v>9077.0</v>
+      </c>
+      <c r="AJ71"/>
     </row>
     <row r="72">
       <c r="A72" t="s" s="7">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B72" t="n" s="8">
         <v>7536.0</v>
@@ -7598,10 +8296,20 @@
       <c r="AF72" t="n" s="8">
         <v>10129.0</v>
       </c>
+      <c r="AG72" t="n" s="8">
+        <v>10140.0</v>
+      </c>
+      <c r="AH72" t="n" s="8">
+        <v>9845.0</v>
+      </c>
+      <c r="AI72" t="n" s="8">
+        <v>10089.0</v>
+      </c>
+      <c r="AJ72"/>
     </row>
     <row r="73">
       <c r="A73" t="s" s="7">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B73" t="n" s="10">
         <v>8.4</v>
@@ -7696,10 +8404,20 @@
       <c r="AF73" t="n" s="10">
         <v>9.8</v>
       </c>
+      <c r="AG73" t="n" s="10">
+        <v>9.9</v>
+      </c>
+      <c r="AH73" t="n" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="AI73" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AJ73"/>
     </row>
     <row r="74">
       <c r="A74" t="s" s="7">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B74" t="n" s="8">
         <v>1907.0</v>
@@ -7794,10 +8512,20 @@
       <c r="AF74" t="n" s="8">
         <v>2296.0</v>
       </c>
+      <c r="AG74" t="n" s="8">
+        <v>2317.0</v>
+      </c>
+      <c r="AH74" t="n" s="8">
+        <v>1306.0</v>
+      </c>
+      <c r="AI74" t="n" s="8">
+        <v>1176.0</v>
+      </c>
+      <c r="AJ74"/>
     </row>
     <row r="75">
       <c r="A75" t="s" s="7">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B75" t="n" s="8">
         <v>20740.0</v>
@@ -7892,10 +8620,20 @@
       <c r="AF75" t="n" s="8">
         <v>21198.0</v>
       </c>
+      <c r="AG75" t="n" s="8">
+        <v>20984.0</v>
+      </c>
+      <c r="AH75" t="n" s="8">
+        <v>21210.0</v>
+      </c>
+      <c r="AI75" t="n" s="8">
+        <v>21518.0</v>
+      </c>
+      <c r="AJ75"/>
     </row>
     <row r="76">
       <c r="A76" t="s" s="7">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B76" t="n" s="8">
         <v>22647.0</v>
@@ -7990,10 +8728,20 @@
       <c r="AF76" t="n" s="8">
         <v>23494.0</v>
       </c>
+      <c r="AG76" t="n" s="8">
+        <v>23301.0</v>
+      </c>
+      <c r="AH76" t="n" s="8">
+        <v>22516.0</v>
+      </c>
+      <c r="AI76" t="n" s="8">
+        <v>22694.0</v>
+      </c>
+      <c r="AJ76"/>
     </row>
     <row r="77">
       <c r="A77" t="s" s="7">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B77" t="n" s="10">
         <v>20.4</v>
@@ -8088,10 +8836,20 @@
       <c r="AF77" t="n" s="10">
         <v>7.6</v>
       </c>
+      <c r="AG77" t="n" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="AH77" t="n" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="AI77" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AJ77"/>
     </row>
     <row r="78">
       <c r="A78" t="s" s="7">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B78" t="n" s="8">
         <v>309.0</v>
@@ -8186,10 +8944,20 @@
       <c r="AF78" t="n" s="8">
         <v>154.0</v>
       </c>
+      <c r="AG78" t="n" s="8">
+        <v>131.0</v>
+      </c>
+      <c r="AH78" t="n" s="8">
+        <v>108.0</v>
+      </c>
+      <c r="AI78" t="n" s="8">
+        <v>95.0</v>
+      </c>
+      <c r="AJ78"/>
     </row>
     <row r="79">
       <c r="A79" t="s" s="7">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B79" t="n" s="8">
         <v>1206.0</v>
@@ -8284,10 +9052,20 @@
       <c r="AF79" t="n" s="8">
         <v>1869.0</v>
       </c>
+      <c r="AG79" t="n" s="8">
+        <v>1859.0</v>
+      </c>
+      <c r="AH79" t="n" s="8">
+        <v>1829.0</v>
+      </c>
+      <c r="AI79" t="n" s="8">
+        <v>1821.0</v>
+      </c>
+      <c r="AJ79"/>
     </row>
     <row r="80">
       <c r="A80" t="s" s="7">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B80" t="n" s="8">
         <v>1515.0</v>
@@ -8382,10 +9160,20 @@
       <c r="AF80" t="n" s="8">
         <v>2023.0</v>
       </c>
+      <c r="AG80" t="n" s="8">
+        <v>1990.0</v>
+      </c>
+      <c r="AH80" t="n" s="8">
+        <v>1937.0</v>
+      </c>
+      <c r="AI80" t="n" s="8">
+        <v>1916.0</v>
+      </c>
+      <c r="AJ80"/>
     </row>
     <row r="81">
       <c r="A81" t="s" s="7">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B81" t="n" s="10">
         <v>7.3</v>
@@ -8480,10 +9268,20 @@
       <c r="AF81" t="n" s="10">
         <v>7.9</v>
       </c>
+      <c r="AG81" t="n" s="10">
+        <v>6.9</v>
+      </c>
+      <c r="AH81" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AI81" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AJ81"/>
     </row>
     <row r="82">
       <c r="A82" t="s" s="7">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B82" t="n" s="8">
         <v>1447.0</v>
@@ -8578,10 +9376,20 @@
       <c r="AF82" t="n" s="8">
         <v>1983.0</v>
       </c>
+      <c r="AG82" t="n" s="8">
+        <v>1731.0</v>
+      </c>
+      <c r="AH82" t="n" s="8">
+        <v>1050.0</v>
+      </c>
+      <c r="AI82" t="n" s="8">
+        <v>1003.0</v>
+      </c>
+      <c r="AJ82"/>
     </row>
     <row r="83">
       <c r="A83" t="s" s="7">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B83" t="n" s="8">
         <v>18488.0</v>
@@ -8676,10 +9484,20 @@
       <c r="AF83" t="n" s="8">
         <v>23128.0</v>
       </c>
+      <c r="AG83" t="n" s="8">
+        <v>23531.0</v>
+      </c>
+      <c r="AH83" t="n" s="8">
+        <v>24031.0</v>
+      </c>
+      <c r="AI83" t="n" s="8">
+        <v>23970.0</v>
+      </c>
+      <c r="AJ83"/>
     </row>
     <row r="84">
       <c r="A84" t="s" s="7">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B84" t="n" s="8">
         <v>19935.0</v>
@@ -8774,10 +9592,20 @@
       <c r="AF84" t="n" s="8">
         <v>25111.0</v>
       </c>
+      <c r="AG84" t="n" s="8">
+        <v>25262.0</v>
+      </c>
+      <c r="AH84" t="n" s="8">
+        <v>25081.0</v>
+      </c>
+      <c r="AI84" t="n" s="8">
+        <v>24973.0</v>
+      </c>
+      <c r="AJ84"/>
     </row>
     <row r="85">
       <c r="A85" t="s" s="7">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B85" t="n" s="10">
         <v>7.3</v>
@@ -8872,10 +9700,20 @@
       <c r="AF85" t="n" s="10">
         <v>7.0</v>
       </c>
+      <c r="AG85" t="n" s="10">
+        <v>7.4</v>
+      </c>
+      <c r="AH85" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AI85" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AJ85"/>
     </row>
     <row r="86">
       <c r="A86" t="s" s="7">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B86" t="n" s="8">
         <v>358.0</v>
@@ -8970,10 +9808,20 @@
       <c r="AF86" t="n" s="8">
         <v>212.0</v>
       </c>
+      <c r="AG86" t="n" s="8">
+        <v>219.0</v>
+      </c>
+      <c r="AH86" t="n" s="8">
+        <v>130.0</v>
+      </c>
+      <c r="AI86" t="n" s="8">
+        <v>123.0</v>
+      </c>
+      <c r="AJ86"/>
     </row>
     <row r="87">
       <c r="A87" t="s" s="7">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B87" t="n" s="8">
         <v>4563.0</v>
@@ -9068,10 +9916,20 @@
       <c r="AF87" t="n" s="8">
         <v>2810.0</v>
       </c>
+      <c r="AG87" t="n" s="8">
+        <v>2729.0</v>
+      </c>
+      <c r="AH87" t="n" s="8">
+        <v>2859.0</v>
+      </c>
+      <c r="AI87" t="n" s="8">
+        <v>2837.0</v>
+      </c>
+      <c r="AJ87"/>
     </row>
     <row r="88">
       <c r="A88" t="s" s="7">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B88" t="n" s="8">
         <v>4921.0</v>
@@ -9166,10 +10024,20 @@
       <c r="AF88" t="n" s="8">
         <v>3022.0</v>
       </c>
+      <c r="AG88" t="n" s="8">
+        <v>2948.0</v>
+      </c>
+      <c r="AH88" t="n" s="8">
+        <v>2989.0</v>
+      </c>
+      <c r="AI88" t="n" s="8">
+        <v>2960.0</v>
+      </c>
+      <c r="AJ88"/>
     </row>
     <row r="89">
       <c r="A89" t="s" s="7">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B89" t="n" s="10">
         <v>13.8</v>
@@ -9264,10 +10132,20 @@
       <c r="AF89" t="n" s="10">
         <v>7.6</v>
       </c>
+      <c r="AG89" t="n" s="10">
+        <v>7.4</v>
+      </c>
+      <c r="AH89" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AI89" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ89"/>
     </row>
     <row r="90">
       <c r="A90" t="s" s="7">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B90" t="n" s="8">
         <v>2124.0</v>
@@ -9362,10 +10240,20 @@
       <c r="AF90" t="n" s="8">
         <v>1255.0</v>
       </c>
+      <c r="AG90" t="n" s="8">
+        <v>1215.0</v>
+      </c>
+      <c r="AH90" t="n" s="8">
+        <v>724.0</v>
+      </c>
+      <c r="AI90" t="n" s="8">
+        <v>583.0</v>
+      </c>
+      <c r="AJ90"/>
     </row>
     <row r="91">
       <c r="A91" t="s" s="7">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B91" t="n" s="8">
         <v>13227.0</v>
@@ -9460,10 +10348,20 @@
       <c r="AF91" t="n" s="8">
         <v>15158.0</v>
       </c>
+      <c r="AG91" t="n" s="8">
+        <v>15271.0</v>
+      </c>
+      <c r="AH91" t="n" s="8">
+        <v>15729.0</v>
+      </c>
+      <c r="AI91" t="n" s="8">
+        <v>16343.0</v>
+      </c>
+      <c r="AJ91"/>
     </row>
     <row r="92">
       <c r="A92" t="s" s="7">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B92" t="n" s="8">
         <v>15351.0</v>
@@ -9558,10 +10456,20 @@
       <c r="AF92" t="n" s="8">
         <v>16413.0</v>
       </c>
+      <c r="AG92" t="n" s="8">
+        <v>16486.0</v>
+      </c>
+      <c r="AH92" t="n" s="8">
+        <v>16453.0</v>
+      </c>
+      <c r="AI92" t="n" s="8">
+        <v>16926.0</v>
+      </c>
+      <c r="AJ92"/>
     </row>
     <row r="93">
       <c r="A93" t="s" s="7">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B93" t="n" s="10">
         <v>6.4</v>
@@ -9656,10 +10564,20 @@
       <c r="AF93" t="n" s="10">
         <v>5.8</v>
       </c>
+      <c r="AG93" t="n" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="AH93" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AI93" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AJ93"/>
     </row>
     <row r="94">
       <c r="A94" t="s" s="7">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B94" t="n" s="8">
         <v>455.0</v>
@@ -9754,10 +10672,20 @@
       <c r="AF94" t="n" s="8">
         <v>453.0</v>
       </c>
+      <c r="AG94" t="n" s="8">
+        <v>465.0</v>
+      </c>
+      <c r="AH94" t="n" s="8">
+        <v>303.0</v>
+      </c>
+      <c r="AI94" t="n" s="8">
+        <v>286.0</v>
+      </c>
+      <c r="AJ94"/>
     </row>
     <row r="95">
       <c r="A95" t="s" s="7">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B95" t="n" s="8">
         <v>6699.0</v>
@@ -9852,10 +10780,20 @@
       <c r="AF95" t="n" s="8">
         <v>7342.0</v>
       </c>
+      <c r="AG95" t="n" s="8">
+        <v>7393.0</v>
+      </c>
+      <c r="AH95" t="n" s="8">
+        <v>7522.0</v>
+      </c>
+      <c r="AI95" t="n" s="8">
+        <v>7569.0</v>
+      </c>
+      <c r="AJ95"/>
     </row>
     <row r="96">
       <c r="A96" t="s" s="7">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B96" t="n" s="8">
         <v>7154.0</v>
@@ -9950,10 +10888,20 @@
       <c r="AF96" t="n" s="8">
         <v>7795.0</v>
       </c>
+      <c r="AG96" t="n" s="8">
+        <v>7858.0</v>
+      </c>
+      <c r="AH96" t="n" s="8">
+        <v>7825.0</v>
+      </c>
+      <c r="AI96" t="n" s="8">
+        <v>7855.0</v>
+      </c>
+      <c r="AJ96"/>
     </row>
     <row r="97">
       <c r="A97" t="s" s="7">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B97" t="n" s="10">
         <v>5.7</v>
@@ -10048,10 +10996,20 @@
       <c r="AF97" t="n" s="10">
         <v>7.9</v>
       </c>
+      <c r="AG97" t="n" s="10">
+        <v>6.9</v>
+      </c>
+      <c r="AH97" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AI97" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AJ97"/>
     </row>
     <row r="98">
       <c r="A98" t="s" s="7">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B98" t="n" s="8">
         <v>1685.0</v>
@@ -10146,10 +11104,20 @@
       <c r="AF98" t="n" s="8">
         <v>5261.0</v>
       </c>
+      <c r="AG98" t="n" s="8">
+        <v>4644.0</v>
+      </c>
+      <c r="AH98" t="n" s="8">
+        <v>2604.0</v>
+      </c>
+      <c r="AI98" t="n" s="8">
+        <v>2534.0</v>
+      </c>
+      <c r="AJ98"/>
     </row>
     <row r="99">
       <c r="A99" t="s" s="7">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B99" t="n" s="8">
         <v>27927.0</v>
@@ -10244,10 +11212,20 @@
       <c r="AF99" t="n" s="8">
         <v>61017.0</v>
       </c>
+      <c r="AG99" t="n" s="8">
+        <v>63001.0</v>
+      </c>
+      <c r="AH99" t="n" s="8">
+        <v>65497.0</v>
+      </c>
+      <c r="AI99" t="n" s="8">
+        <v>67001.0</v>
+      </c>
+      <c r="AJ99"/>
     </row>
     <row r="100">
       <c r="A100" t="s" s="7">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B100" t="n" s="8">
         <v>29612.0</v>
@@ -10342,10 +11320,20 @@
       <c r="AF100" t="n" s="8">
         <v>66278.0</v>
       </c>
+      <c r="AG100" t="n" s="8">
+        <v>67645.0</v>
+      </c>
+      <c r="AH100" t="n" s="8">
+        <v>68101.0</v>
+      </c>
+      <c r="AI100" t="n" s="8">
+        <v>69535.0</v>
+      </c>
+      <c r="AJ100"/>
     </row>
     <row r="101">
       <c r="A101" t="s" s="7">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B101" t="n" s="10">
         <v>8.8</v>
@@ -10440,10 +11428,20 @@
       <c r="AF101" t="n" s="10">
         <v>9.4</v>
       </c>
+      <c r="AG101" t="n" s="10">
+        <v>8.4</v>
+      </c>
+      <c r="AH101" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AI101" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AJ101"/>
     </row>
     <row r="102">
       <c r="A102" t="s" s="7">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B102" t="n" s="8">
         <v>3401.0</v>
@@ -10538,10 +11536,20 @@
       <c r="AF102" t="n" s="8">
         <v>4659.0</v>
       </c>
+      <c r="AG102" t="n" s="8">
+        <v>4111.0</v>
+      </c>
+      <c r="AH102" t="n" s="8">
+        <v>2297.0</v>
+      </c>
+      <c r="AI102" t="n" s="8">
+        <v>2125.0</v>
+      </c>
+      <c r="AJ102"/>
     </row>
     <row r="103">
       <c r="A103" t="s" s="7">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B103" t="n" s="8">
         <v>35466.0</v>
@@ -10636,10 +11644,20 @@
       <c r="AF103" t="n" s="8">
         <v>45109.0</v>
       </c>
+      <c r="AG103" t="n" s="8">
+        <v>45071.0</v>
+      </c>
+      <c r="AH103" t="n" s="8">
+        <v>47141.0</v>
+      </c>
+      <c r="AI103" t="n" s="8">
+        <v>48740.0</v>
+      </c>
+      <c r="AJ103"/>
     </row>
     <row r="104">
       <c r="A104" t="s" s="7">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B104" t="n" s="8">
         <v>38867.0</v>
@@ -10734,10 +11752,20 @@
       <c r="AF104" t="n" s="8">
         <v>49768.0</v>
       </c>
+      <c r="AG104" t="n" s="8">
+        <v>49182.0</v>
+      </c>
+      <c r="AH104" t="n" s="8">
+        <v>49438.0</v>
+      </c>
+      <c r="AI104" t="n" s="8">
+        <v>50865.0</v>
+      </c>
+      <c r="AJ104"/>
     </row>
     <row r="105">
       <c r="A105" t="s" s="7">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B105" t="n" s="10">
         <v>10.6</v>
@@ -10832,10 +11860,20 @@
       <c r="AF105" t="n" s="10">
         <v>7.7</v>
       </c>
+      <c r="AG105" t="n" s="10">
+        <v>7.6</v>
+      </c>
+      <c r="AH105" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AI105" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AJ105"/>
     </row>
     <row r="106">
       <c r="A106" t="s" s="7">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B106" t="n" s="8">
         <v>1161.0</v>
@@ -10930,10 +11968,20 @@
       <c r="AF106" t="n" s="8">
         <v>804.0</v>
       </c>
+      <c r="AG106" t="n" s="8">
+        <v>790.0</v>
+      </c>
+      <c r="AH106" t="n" s="8">
+        <v>514.0</v>
+      </c>
+      <c r="AI106" t="n" s="8">
+        <v>488.0</v>
+      </c>
+      <c r="AJ106"/>
     </row>
     <row r="107">
       <c r="A107" t="s" s="7">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B107" t="n" s="8">
         <v>9784.0</v>
@@ -11028,10 +12076,20 @@
       <c r="AF107" t="n" s="8">
         <v>9579.0</v>
       </c>
+      <c r="AG107" t="n" s="8">
+        <v>9557.0</v>
+      </c>
+      <c r="AH107" t="n" s="8">
+        <v>9794.0</v>
+      </c>
+      <c r="AI107" t="n" s="8">
+        <v>10031.0</v>
+      </c>
+      <c r="AJ107"/>
     </row>
     <row r="108">
       <c r="A108" t="s" s="7">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B108" t="n" s="8">
         <v>10945.0</v>
@@ -11126,10 +12184,20 @@
       <c r="AF108" t="n" s="8">
         <v>10383.0</v>
       </c>
+      <c r="AG108" t="n" s="8">
+        <v>10347.0</v>
+      </c>
+      <c r="AH108" t="n" s="8">
+        <v>10308.0</v>
+      </c>
+      <c r="AI108" t="n" s="8">
+        <v>10519.0</v>
+      </c>
+      <c r="AJ108"/>
     </row>
     <row r="109">
       <c r="A109" t="s" s="7">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B109" t="n" s="10">
         <v>3.4</v>
@@ -11224,10 +12292,20 @@
       <c r="AF109" t="n" s="10">
         <v>7.7</v>
       </c>
+      <c r="AG109" t="n" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="AH109" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AI109" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ109"/>
     </row>
     <row r="110">
       <c r="A110" t="s" s="7">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B110" t="n" s="8">
         <v>1839.0</v>
@@ -11322,10 +12400,20 @@
       <c r="AF110" t="n" s="8">
         <v>5422.0</v>
       </c>
+      <c r="AG110" t="n" s="8">
+        <v>4657.0</v>
+      </c>
+      <c r="AH110" t="n" s="8">
+        <v>2624.0</v>
+      </c>
+      <c r="AI110" t="n" s="8">
+        <v>2449.0</v>
+      </c>
+      <c r="AJ110"/>
     </row>
     <row r="111">
       <c r="A111" t="s" s="7">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B111" t="n" s="8">
         <v>53049.0</v>
@@ -11420,10 +12508,20 @@
       <c r="AF111" t="n" s="8">
         <v>65291.0</v>
       </c>
+      <c r="AG111" t="n" s="8">
+        <v>67643.0</v>
+      </c>
+      <c r="AH111" t="n" s="8">
+        <v>69627.0</v>
+      </c>
+      <c r="AI111" t="n" s="8">
+        <v>70517.0</v>
+      </c>
+      <c r="AJ111"/>
     </row>
     <row r="112">
       <c r="A112" t="s" s="7">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B112" t="n" s="8">
         <v>54888.0</v>
@@ -11518,10 +12616,20 @@
       <c r="AF112" t="n" s="8">
         <v>70713.0</v>
       </c>
+      <c r="AG112" t="n" s="8">
+        <v>72300.0</v>
+      </c>
+      <c r="AH112" t="n" s="8">
+        <v>72251.0</v>
+      </c>
+      <c r="AI112" t="n" s="8">
+        <v>72966.0</v>
+      </c>
+      <c r="AJ112"/>
     </row>
     <row r="113">
       <c r="A113" t="s" s="7">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B113" t="n" s="10">
         <v>4.3</v>
@@ -11616,10 +12724,20 @@
       <c r="AF113" t="n" s="10">
         <v>8.7</v>
       </c>
+      <c r="AG113" t="n" s="10">
+        <v>8.4</v>
+      </c>
+      <c r="AH113" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="AI113" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="AJ113"/>
     </row>
     <row r="114">
       <c r="A114" t="s" s="7">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B114" t="n" s="8">
         <v>149.0</v>
@@ -11714,10 +12832,20 @@
       <c r="AF114" t="n" s="8">
         <v>353.0</v>
       </c>
+      <c r="AG114" t="n" s="8">
+        <v>343.0</v>
+      </c>
+      <c r="AH114" t="n" s="8">
+        <v>236.0</v>
+      </c>
+      <c r="AI114" t="n" s="8">
+        <v>232.0</v>
+      </c>
+      <c r="AJ114"/>
     </row>
     <row r="115">
       <c r="A115" t="s" s="7">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B115" t="n" s="8">
         <v>3300.0</v>
@@ -11812,10 +12940,20 @@
       <c r="AF115" t="n" s="8">
         <v>3697.0</v>
       </c>
+      <c r="AG115" t="n" s="8">
+        <v>3751.0</v>
+      </c>
+      <c r="AH115" t="n" s="8">
+        <v>3705.0</v>
+      </c>
+      <c r="AI115" t="n" s="8">
+        <v>3645.0</v>
+      </c>
+      <c r="AJ115"/>
     </row>
     <row r="116">
       <c r="A116" t="s" s="7">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B116" t="n" s="8">
         <v>3449.0</v>
@@ -11910,10 +13048,20 @@
       <c r="AF116" t="n" s="8">
         <v>4050.0</v>
       </c>
+      <c r="AG116" t="n" s="8">
+        <v>4094.0</v>
+      </c>
+      <c r="AH116" t="n" s="8">
+        <v>3941.0</v>
+      </c>
+      <c r="AI116" t="n" s="8">
+        <v>3877.0</v>
+      </c>
+      <c r="AJ116"/>
     </row>
     <row r="117">
       <c r="A117" t="s" s="7">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B117" t="n" s="10">
         <v>7.6</v>
@@ -12008,10 +13156,20 @@
       <c r="AF117" t="n" s="10">
         <v>6.7</v>
       </c>
+      <c r="AG117" t="n" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="AH117" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AI117" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AJ117"/>
     </row>
     <row r="118">
       <c r="A118" t="s" s="7">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B118" t="n" s="8">
         <v>503.0</v>
@@ -12106,10 +13264,20 @@
       <c r="AF118" t="n" s="8">
         <v>409.0</v>
       </c>
+      <c r="AG118" t="n" s="8">
+        <v>411.0</v>
+      </c>
+      <c r="AH118" t="n" s="8">
+        <v>266.0</v>
+      </c>
+      <c r="AI118" t="n" s="8">
+        <v>260.0</v>
+      </c>
+      <c r="AJ118"/>
     </row>
     <row r="119">
       <c r="A119" t="s" s="7">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B119" t="n" s="8">
         <v>6145.0</v>
@@ -12204,10 +13372,20 @@
       <c r="AF119" t="n" s="8">
         <v>5723.0</v>
       </c>
+      <c r="AG119" t="n" s="8">
+        <v>5783.0</v>
+      </c>
+      <c r="AH119" t="n" s="8">
+        <v>5817.0</v>
+      </c>
+      <c r="AI119" t="n" s="8">
+        <v>5910.0</v>
+      </c>
+      <c r="AJ119"/>
     </row>
     <row r="120">
       <c r="A120" t="s" s="7">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B120" t="n" s="8">
         <v>6648.0</v>
@@ -12302,10 +13480,20 @@
       <c r="AF120" t="n" s="8">
         <v>6132.0</v>
       </c>
+      <c r="AG120" t="n" s="8">
+        <v>6194.0</v>
+      </c>
+      <c r="AH120" t="n" s="8">
+        <v>6083.0</v>
+      </c>
+      <c r="AI120" t="n" s="8">
+        <v>6170.0</v>
+      </c>
+      <c r="AJ120"/>
     </row>
     <row r="121">
       <c r="A121" t="s" s="7">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B121" t="n" s="10">
         <v>15.5</v>
@@ -12400,10 +13588,20 @@
       <c r="AF121" t="n" s="10">
         <v>10.9</v>
       </c>
+      <c r="AG121" t="n" s="10">
+        <v>9.2</v>
+      </c>
+      <c r="AH121" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AI121" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AJ121"/>
     </row>
     <row r="122">
       <c r="A122" t="s" s="7">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B122" t="n" s="8">
         <v>1733.0</v>
@@ -12498,10 +13696,20 @@
       <c r="AF122" t="n" s="8">
         <v>1588.0</v>
       </c>
+      <c r="AG122" t="n" s="8">
+        <v>1348.0</v>
+      </c>
+      <c r="AH122" t="n" s="8">
+        <v>729.0</v>
+      </c>
+      <c r="AI122" t="n" s="8">
+        <v>654.0</v>
+      </c>
+      <c r="AJ122"/>
     </row>
     <row r="123">
       <c r="A123" t="s" s="7">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B123" t="n" s="8">
         <v>9421.0</v>
@@ -12596,10 +13804,20 @@
       <c r="AF123" t="n" s="8">
         <v>13034.0</v>
       </c>
+      <c r="AG123" t="n" s="8">
+        <v>13380.0</v>
+      </c>
+      <c r="AH123" t="n" s="8">
+        <v>14016.0</v>
+      </c>
+      <c r="AI123" t="n" s="8">
+        <v>14154.0</v>
+      </c>
+      <c r="AJ123"/>
     </row>
     <row r="124">
       <c r="A124" t="s" s="7">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B124" t="n" s="8">
         <v>11154.0</v>
@@ -12694,10 +13912,20 @@
       <c r="AF124" t="n" s="8">
         <v>14622.0</v>
       </c>
+      <c r="AG124" t="n" s="8">
+        <v>14728.0</v>
+      </c>
+      <c r="AH124" t="n" s="8">
+        <v>14745.0</v>
+      </c>
+      <c r="AI124" t="n" s="8">
+        <v>14808.0</v>
+      </c>
+      <c r="AJ124"/>
     </row>
     <row r="125">
       <c r="A125" t="s" s="7">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B125" t="n" s="10">
         <v>7.8</v>
@@ -12792,10 +14020,20 @@
       <c r="AF125" t="n" s="10">
         <v>8.9</v>
       </c>
+      <c r="AG125" t="n" s="10">
+        <v>8.2</v>
+      </c>
+      <c r="AH125" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AI125" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AJ125"/>
     </row>
     <row r="126">
       <c r="A126" t="s" s="7">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B126" t="n" s="8">
         <v>333.0</v>
@@ -12890,10 +14128,20 @@
       <c r="AF126" t="n" s="8">
         <v>472.0</v>
       </c>
+      <c r="AG126" t="n" s="8">
+        <v>442.0</v>
+      </c>
+      <c r="AH126" t="n" s="8">
+        <v>296.0</v>
+      </c>
+      <c r="AI126" t="n" s="8">
+        <v>279.0</v>
+      </c>
+      <c r="AJ126"/>
     </row>
     <row r="127">
       <c r="A127" t="s" s="7">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B127" t="n" s="8">
         <v>3939.0</v>
@@ -12988,10 +14236,20 @@
       <c r="AF127" t="n" s="8">
         <v>4823.0</v>
       </c>
+      <c r="AG127" t="n" s="8">
+        <v>4965.0</v>
+      </c>
+      <c r="AH127" t="n" s="8">
+        <v>5209.0</v>
+      </c>
+      <c r="AI127" t="n" s="8">
+        <v>5220.0</v>
+      </c>
+      <c r="AJ127"/>
     </row>
     <row r="128">
       <c r="A128" t="s" s="7">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B128" t="n" s="8">
         <v>4272.0</v>
@@ -13086,10 +14344,20 @@
       <c r="AF128" t="n" s="8">
         <v>5295.0</v>
       </c>
+      <c r="AG128" t="n" s="8">
+        <v>5407.0</v>
+      </c>
+      <c r="AH128" t="n" s="8">
+        <v>5505.0</v>
+      </c>
+      <c r="AI128" t="n" s="8">
+        <v>5499.0</v>
+      </c>
+      <c r="AJ128"/>
     </row>
     <row r="129">
       <c r="A129" t="s" s="7">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B129" t="n" s="10">
         <v>4.7</v>
@@ -13184,10 +14452,20 @@
       <c r="AF129" t="n" s="10">
         <v>4.8</v>
       </c>
+      <c r="AG129" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AH129" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AI129" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AJ129"/>
     </row>
     <row r="130">
       <c r="A130" t="s" s="7">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B130" t="n" s="8">
         <v>88.0</v>
@@ -13282,10 +14560,20 @@
       <c r="AF130" t="n" s="8">
         <v>78.0</v>
       </c>
+      <c r="AG130" t="n" s="8">
+        <v>71.0</v>
+      </c>
+      <c r="AH130" t="n" s="8">
+        <v>46.0</v>
+      </c>
+      <c r="AI130" t="n" s="8">
+        <v>48.0</v>
+      </c>
+      <c r="AJ130"/>
     </row>
     <row r="131">
       <c r="A131" t="s" s="7">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B131" t="n" s="8">
         <v>1783.0</v>
@@ -13380,10 +14668,20 @@
       <c r="AF131" t="n" s="8">
         <v>1544.0</v>
       </c>
+      <c r="AG131" t="n" s="8">
+        <v>1494.0</v>
+      </c>
+      <c r="AH131" t="n" s="8">
+        <v>1529.0</v>
+      </c>
+      <c r="AI131" t="n" s="8">
+        <v>1483.0</v>
+      </c>
+      <c r="AJ131"/>
     </row>
     <row r="132">
       <c r="A132" t="s" s="7">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B132" t="n" s="8">
         <v>1871.0</v>
@@ -13478,10 +14776,20 @@
       <c r="AF132" t="n" s="8">
         <v>1622.0</v>
       </c>
+      <c r="AG132" t="n" s="8">
+        <v>1565.0</v>
+      </c>
+      <c r="AH132" t="n" s="8">
+        <v>1575.0</v>
+      </c>
+      <c r="AI132" t="n" s="8">
+        <v>1531.0</v>
+      </c>
+      <c r="AJ132"/>
     </row>
     <row r="133">
       <c r="A133" t="s" s="7">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B133" t="n" s="10">
         <v>6.5</v>
@@ -13576,10 +14884,20 @@
       <c r="AF133" t="n" s="10">
         <v>7.7</v>
       </c>
+      <c r="AG133" t="n" s="10">
+        <v>7.1</v>
+      </c>
+      <c r="AH133" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AI133" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AJ133"/>
     </row>
     <row r="134">
       <c r="A134" t="s" s="7">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B134" t="n" s="8">
         <v>1275.0</v>
@@ -13674,10 +14992,20 @@
       <c r="AF134" t="n" s="8">
         <v>2309.0</v>
       </c>
+      <c r="AG134" t="n" s="8">
+        <v>2206.0</v>
+      </c>
+      <c r="AH134" t="n" s="8">
+        <v>1347.0</v>
+      </c>
+      <c r="AI134" t="n" s="8">
+        <v>1280.0</v>
+      </c>
+      <c r="AJ134"/>
     </row>
     <row r="135">
       <c r="A135" t="s" s="7">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B135" t="n" s="8">
         <v>18488.0</v>
@@ -13772,10 +15100,20 @@
       <c r="AF135" t="n" s="8">
         <v>27772.0</v>
       </c>
+      <c r="AG135" t="n" s="8">
+        <v>28667.0</v>
+      </c>
+      <c r="AH135" t="n" s="8">
+        <v>29772.0</v>
+      </c>
+      <c r="AI135" t="n" s="8">
+        <v>30319.0</v>
+      </c>
+      <c r="AJ135"/>
     </row>
     <row r="136">
       <c r="A136" t="s" s="7">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B136" t="n" s="8">
         <v>19763.0</v>
@@ -13870,6 +15208,16 @@
       <c r="AF136" t="n" s="8">
         <v>30081.0</v>
       </c>
+      <c r="AG136" t="n" s="8">
+        <v>30873.0</v>
+      </c>
+      <c r="AH136" t="n" s="8">
+        <v>31119.0</v>
+      </c>
+      <c r="AI136" t="n" s="8">
+        <v>31599.0</v>
+      </c>
+      <c r="AJ136"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -13880,7 +15228,7 @@
   <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: December 27, 2024 (01:47:04 AM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: January 5, 2025 (02:55:28 PM)</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
